--- a/Modello/nuovi modelli/inputTesiOriginali/test5/Soluzioni-5.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test5/Soluzioni-5.xlsx
@@ -281,7 +281,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10450" uniqueCount="786">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40457" uniqueCount="786">
   <si>
     <t>ANSPs</t>
   </si>

--- a/Modello/nuovi modelli/inputTesiOriginali/test5/Soluzioni-5.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test5/Soluzioni-5.xlsx
@@ -281,7 +281,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40457" uniqueCount="786">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61806" uniqueCount="786">
   <si>
     <t>ANSPs</t>
   </si>
@@ -31081,7 +31081,7 @@
         <v>43</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>90</v>
@@ -31093,43 +31093,43 @@
         <v>90</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>90</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>90</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="N7" s="5" t="s">
         <v>90</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="P7" s="5" t="s">
         <v>90</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="S7" s="5" t="s">
         <v>90</v>
@@ -31162,7 +31162,7 @@
         <v>90</v>
       </c>
       <c r="AC7" s="5" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
       <c r="AD7" s="5" t="s">
         <v>90</v>
@@ -31174,7 +31174,7 @@
         <v>90</v>
       </c>
       <c r="AG7" s="5" t="s">
-        <v>661</v>
+        <v>650</v>
       </c>
       <c r="AH7" s="5" t="s">
         <v>90</v>
@@ -31899,7 +31899,7 @@
         <v>90</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>90</v>
@@ -31911,7 +31911,7 @@
         <v>90</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>90</v>
@@ -31923,13 +31923,13 @@
         <v>90</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="M14" s="5" t="s">
         <v>90</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="O14" s="5" t="s">
         <v>90</v>
@@ -31950,7 +31950,7 @@
         <v>90</v>
       </c>
       <c r="U14" s="5" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
       <c r="V14" s="5" t="s">
         <v>90</v>
@@ -31968,7 +31968,7 @@
         <v>90</v>
       </c>
       <c r="AA14" s="5" t="s">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="AB14" s="5" t="s">
         <v>90</v>
@@ -31983,7 +31983,7 @@
         <v>90</v>
       </c>
       <c r="AF14" s="5" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="AG14" s="5" t="s">
         <v>90</v>
@@ -31998,10 +31998,10 @@
         <v>90</v>
       </c>
       <c r="AK14" s="5" t="s">
-        <v>764</v>
+        <v>750</v>
       </c>
       <c r="AL14" s="5" t="s">
-        <v>783</v>
+        <v>772</v>
       </c>
     </row>
     <row r="15">
@@ -32476,7 +32476,7 @@
         <v>90</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>90</v>
@@ -32524,7 +32524,7 @@
         <v>90</v>
       </c>
       <c r="S19" s="5" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="T19" s="5" t="s">
         <v>90</v>
@@ -32569,7 +32569,7 @@
         <v>90</v>
       </c>
       <c r="AH19" s="5" t="s">
-        <v>678</v>
+        <v>664</v>
       </c>
       <c r="AI19" s="5" t="s">
         <v>90</v>
@@ -32643,7 +32643,7 @@
         <v>90</v>
       </c>
       <c r="T20" s="5" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="U20" s="5" t="s">
         <v>90</v>
@@ -32685,7 +32685,7 @@
         <v>90</v>
       </c>
       <c r="AH20" s="5" t="s">
-        <v>679</v>
+        <v>665</v>
       </c>
       <c r="AI20" s="5" t="s">
         <v>90</v>
@@ -32827,7 +32827,7 @@
         <v>90</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>90</v>
@@ -32839,7 +32839,7 @@
         <v>90</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="I22" s="5" t="s">
         <v>90</v>
@@ -32881,7 +32881,7 @@
         <v>90</v>
       </c>
       <c r="V22" s="5" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="W22" s="5" t="s">
         <v>90</v>
@@ -32896,7 +32896,7 @@
         <v>90</v>
       </c>
       <c r="AA22" s="5" t="s">
-        <v>556</v>
+        <v>543</v>
       </c>
       <c r="AB22" s="5" t="s">
         <v>90</v>
@@ -32911,19 +32911,19 @@
         <v>90</v>
       </c>
       <c r="AF22" s="5" t="s">
-        <v>634</v>
+        <v>622</v>
       </c>
       <c r="AG22" s="5" t="s">
         <v>90</v>
       </c>
       <c r="AH22" s="5" t="s">
-        <v>680</v>
+        <v>666</v>
       </c>
       <c r="AI22" s="5" t="s">
         <v>90</v>
       </c>
       <c r="AJ22" s="5" t="s">
-        <v>730</v>
+        <v>718</v>
       </c>
       <c r="AK22" s="5" t="s">
         <v>90</v>
@@ -33000,7 +33000,7 @@
         <v>90</v>
       </c>
       <c r="W23" s="5" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="X23" s="5" t="s">
         <v>90</v>
@@ -33039,7 +33039,7 @@
         <v>90</v>
       </c>
       <c r="AJ23" s="5" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="AK23" s="5" t="s">
         <v>90</v>
@@ -33187,7 +33187,7 @@
         <v>90</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>90</v>
@@ -33211,7 +33211,7 @@
         <v>90</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="Q25" s="5" t="s">
         <v>90</v>
@@ -33226,7 +33226,7 @@
         <v>90</v>
       </c>
       <c r="U25" s="5" t="s">
-        <v>495</v>
+        <v>481</v>
       </c>
       <c r="V25" s="5" t="s">
         <v>90</v>
@@ -33238,7 +33238,7 @@
         <v>90</v>
       </c>
       <c r="Y25" s="5" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="Z25" s="5" t="s">
         <v>90</v>
@@ -33265,7 +33265,7 @@
         <v>90</v>
       </c>
       <c r="AH25" s="5" t="s">
-        <v>681</v>
+        <v>667</v>
       </c>
       <c r="AI25" s="5" t="s">
         <v>90</v>
@@ -33274,10 +33274,10 @@
         <v>90</v>
       </c>
       <c r="AK25" s="5" t="s">
-        <v>765</v>
+        <v>751</v>
       </c>
       <c r="AL25" s="5" t="s">
-        <v>784</v>
+        <v>773</v>
       </c>
     </row>
     <row r="26">
@@ -33291,7 +33291,7 @@
         <v>90</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>90</v>
@@ -33357,10 +33357,10 @@
         <v>90</v>
       </c>
       <c r="Z26" s="5" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="AA26" s="5" t="s">
-        <v>557</v>
+        <v>544</v>
       </c>
       <c r="AB26" s="5" t="s">
         <v>90</v>
@@ -33375,7 +33375,7 @@
         <v>90</v>
       </c>
       <c r="AF26" s="5" t="s">
-        <v>635</v>
+        <v>623</v>
       </c>
       <c r="AG26" s="5" t="s">
         <v>90</v>
@@ -33517,55 +33517,55 @@
         <v>64</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>90</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>90</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="N28" s="5" t="s">
         <v>90</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="Q28" s="5" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="R28" s="5" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="S28" s="5" t="s">
         <v>90</v>
@@ -33574,7 +33574,7 @@
         <v>90</v>
       </c>
       <c r="U28" s="5" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="V28" s="5" t="s">
         <v>90</v>
@@ -33583,7 +33583,7 @@
         <v>90</v>
       </c>
       <c r="X28" s="5" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="Y28" s="5" t="s">
         <v>90</v>
@@ -33595,13 +33595,13 @@
         <v>90</v>
       </c>
       <c r="AB28" s="5" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="AC28" s="5" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="AD28" s="5" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="AE28" s="5" t="s">
         <v>90</v>
@@ -33610,19 +33610,19 @@
         <v>90</v>
       </c>
       <c r="AG28" s="5" t="s">
-        <v>662</v>
+        <v>651</v>
       </c>
       <c r="AH28" s="5" t="s">
         <v>90</v>
       </c>
       <c r="AI28" s="5" t="s">
-        <v>704</v>
+        <v>694</v>
       </c>
       <c r="AJ28" s="5" t="s">
-        <v>732</v>
+        <v>720</v>
       </c>
       <c r="AK28" s="5" t="s">
-        <v>766</v>
+        <v>752</v>
       </c>
       <c r="AL28" s="5" t="s">
         <v>90</v>
@@ -33868,13 +33868,13 @@
         <v>90</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>90</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>90</v>
@@ -33907,7 +33907,7 @@
         <v>90</v>
       </c>
       <c r="P31" s="5" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="Q31" s="5" t="s">
         <v>90</v>
@@ -33952,7 +33952,7 @@
         <v>90</v>
       </c>
       <c r="AE31" s="5" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="AF31" s="5" t="s">
         <v>90</v>
@@ -34793,115 +34793,115 @@
         <v>79</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="O39" s="4" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="P39" s="4" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="Q39" s="4" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="R39" s="4" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="S39" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="T39" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="U39" s="4" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="V39" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="W39" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="X39" s="4" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="Y39" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="Z39" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="AA39" s="4" t="s">
-        <v>558</v>
+        <v>545</v>
       </c>
       <c r="AB39" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="AC39" s="4" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="AD39" s="4" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="AE39" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="AF39" s="4" t="s">
-        <v>636</v>
+        <v>624</v>
       </c>
       <c r="AG39" s="4" t="s">
-        <v>663</v>
+        <v>652</v>
       </c>
       <c r="AH39" s="4" t="s">
-        <v>682</v>
+        <v>668</v>
       </c>
       <c r="AI39" s="4" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="AJ39" s="4" t="s">
-        <v>733</v>
+        <v>721</v>
       </c>
       <c r="AK39" s="4" t="s">
-        <v>767</v>
+        <v>753</v>
       </c>
       <c r="AL39" s="4" t="s">
-        <v>785</v>
+        <v>774</v>
       </c>
     </row>
     <row r="40">
@@ -34909,115 +34909,115 @@
         <v>87</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="O40" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="P40" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="Q40" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="R40" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="S40" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="T40" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="U40" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="V40" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="W40" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="X40" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="Y40" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="Z40" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="AA40" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="AB40" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="AC40" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="AD40" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="AE40" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="AF40" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="AG40" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="AH40" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="AI40" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="AJ40" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="AK40" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="AL40" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41">
@@ -35025,115 +35025,115 @@
         <v>88</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>109</v>
+        <v>164</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>109</v>
+        <v>193</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>109</v>
+        <v>232</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>109</v>
+        <v>263</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>109</v>
+        <v>290</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>109</v>
+        <v>304</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>109</v>
+        <v>319</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>109</v>
+        <v>336</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="O41" s="4" t="s">
-        <v>109</v>
+        <v>367</v>
       </c>
       <c r="P41" s="4" t="s">
-        <v>109</v>
+        <v>384</v>
       </c>
       <c r="Q41" s="4" t="s">
-        <v>109</v>
+        <v>412</v>
       </c>
       <c r="R41" s="4" t="s">
-        <v>109</v>
+        <v>440</v>
       </c>
       <c r="S41" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="T41" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="U41" s="4" t="s">
-        <v>109</v>
+        <v>483</v>
       </c>
       <c r="V41" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="W41" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="X41" s="4" t="s">
-        <v>109</v>
+        <v>522</v>
       </c>
       <c r="Y41" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="Z41" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="AA41" s="4" t="s">
-        <v>109</v>
+        <v>545</v>
       </c>
       <c r="AB41" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="AC41" s="4" t="s">
-        <v>109</v>
+        <v>566</v>
       </c>
       <c r="AD41" s="4" t="s">
-        <v>109</v>
+        <v>593</v>
       </c>
       <c r="AE41" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="AF41" s="4" t="s">
-        <v>109</v>
+        <v>624</v>
       </c>
       <c r="AG41" s="4" t="s">
-        <v>109</v>
+        <v>652</v>
       </c>
       <c r="AH41" s="4" t="s">
-        <v>109</v>
+        <v>668</v>
       </c>
       <c r="AI41" s="4" t="s">
-        <v>109</v>
+        <v>695</v>
       </c>
       <c r="AJ41" s="4" t="s">
-        <v>109</v>
+        <v>721</v>
       </c>
       <c r="AK41" s="4" t="s">
-        <v>109</v>
+        <v>753</v>
       </c>
       <c r="AL41" s="4" t="s">
-        <v>109</v>
+        <v>774</v>
       </c>
     </row>
     <row r="42">
